--- a/export.xlsx
+++ b/export.xlsx
@@ -103,7 +103,7 @@
     <t>Кропоткин</t>
   </si>
   <si>
-    <t>Остапов</t>
+    <t>Андреев</t>
   </si>
   <si>
     <t>Андрей</t>

--- a/export.xlsx
+++ b/export.xlsx
@@ -55,7 +55,7 @@
     <t>Иванович</t>
   </si>
   <si>
-    <t>+7 (999) 299-99-99</t>
+    <t>+7 (999) 2299999</t>
   </si>
   <si>
     <t>ivanov@mail.ru</t>
@@ -76,7 +76,7 @@
     <t>Петрович</t>
   </si>
   <si>
-    <t>+7 (888) 228-88-88</t>
+    <t>+7 (888) 2288888</t>
   </si>
   <si>
     <t>petron@gmail.com</t>
@@ -94,7 +94,7 @@
     <t>Юрий</t>
   </si>
   <si>
-    <t>+7 (777) 227-77-77</t>
+    <t>+7 (777) 2277777</t>
   </si>
   <si>
     <t>sidorov@mail.ru</t>
@@ -112,7 +112,7 @@
     <t>Андреевич</t>
   </si>
   <si>
-    <t>+7 (666) 226-66-66</t>
+    <t>+7 (666) 2266666</t>
   </si>
   <si>
     <t>Шахты</t>
@@ -127,7 +127,7 @@
     <t>Алексеевна</t>
   </si>
   <si>
-    <t>+7 (555) 225-55-55</t>
+    <t>+7 (555) 2255555</t>
   </si>
   <si>
     <t>shevchenko@gmail.com</t>
@@ -145,7 +145,7 @@
     <t>Владимирович</t>
   </si>
   <si>
-    <t>+7 (444) 224-44-44</t>
+    <t>+7 (444) 2244444</t>
   </si>
   <si>
     <t>vladimirov@gmail.com</t>
@@ -163,7 +163,7 @@
     <t>Семенович</t>
   </si>
   <si>
-    <t>+7 (333) 223-33-33</t>
+    <t>+7 (333) 2233333</t>
   </si>
   <si>
     <t>semenov@mail.ru</t>
